--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -13,13 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Email</t>
+    <t>bmkvs541@gmail.com</t>
   </si>
   <si>
-    <t>1m@gmail.com</t>
+    <t>rcaps70700@gmail.com</t>
   </si>
   <si>
-    <t>bm@gmail.com</t>
+    <t>vim@gmail.com</t>
   </si>
 </sst>
 </file>
